--- a/template.xlsx
+++ b/template.xlsx
@@ -5,15 +5,15 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\harp.d\HARP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F669254-C412-4209-A285-C9FB2887C927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66189719-51B6-42EA-A7ED-3B8A50187780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
-    <sheet name="Spouse 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sam" sheetId="1" r:id="rId1"/>
     <sheet name="Spouse 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -422,7 +422,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -898,7 +898,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66189719-51B6-42EA-A7ED-3B8A50187780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E62D12-4710-4B85-B5EB-9680494BB4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="16215" yWindow="540" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sam" sheetId="1" r:id="rId1"/>
-    <sheet name="Spouse 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Casey" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -422,28 +422,28 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -485,7 +485,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -550,7 +550,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -563,7 +563,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2051</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2052</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2053</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2054</v>
       </c>
@@ -898,24 +898,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" customWidth="1"/>
-    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.453125" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2023</v>
       </c>
@@ -957,7 +957,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -970,7 +970,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2025</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2026</v>
       </c>
@@ -996,7 +996,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2027</v>
       </c>
@@ -1009,7 +1009,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2028</v>
       </c>
@@ -1022,7 +1022,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2029</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2030</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2031</v>
       </c>
@@ -1061,7 +1061,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2032</v>
       </c>
@@ -1074,7 +1074,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2033</v>
       </c>
@@ -1087,7 +1087,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2034</v>
       </c>
@@ -1100,7 +1100,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2035</v>
       </c>
@@ -1113,7 +1113,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2036</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2037</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2038</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2039</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2040</v>
       </c>
@@ -1178,7 +1178,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2041</v>
       </c>
@@ -1191,7 +1191,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2042</v>
       </c>
@@ -1204,7 +1204,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2043</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2044</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2045</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2046</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2047</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2048</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2049</v>
       </c>
@@ -1295,7 +1295,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2050</v>
       </c>
@@ -1308,7 +1308,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2051</v>
       </c>
@@ -1321,7 +1321,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2052</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2053</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2054</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2055</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2056</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2057</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E62D12-4710-4B85-B5EB-9680494BB4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A49A6-32A5-4B27-B197-95704EB4EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="540" windowWidth="21600" windowHeight="11175" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sam" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +474,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -487,7 +487,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -500,7 +500,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -513,7 +513,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -526,7 +526,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -539,7 +539,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -552,7 +552,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -565,7 +565,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -578,7 +578,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -591,7 +591,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -604,7 +604,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -617,7 +617,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -630,7 +630,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -643,7 +643,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -656,7 +656,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -669,7 +669,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -682,7 +682,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -695,7 +695,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -708,7 +708,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -721,7 +721,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -734,7 +734,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -760,7 +760,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -773,7 +773,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -786,7 +786,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -799,7 +799,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -812,7 +812,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -825,7 +825,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -838,7 +838,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -851,7 +851,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -864,7 +864,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -875,19 +875,6 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2054</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -896,10 +883,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DE7EE4-731B-47FB-9A4E-667972814602}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,7 +933,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -959,7 +946,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -972,7 +959,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -985,7 +972,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -998,7 +985,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1011,7 +998,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1024,7 +1011,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1037,7 +1024,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1050,7 +1037,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1063,7 +1050,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1076,7 +1063,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1089,7 +1076,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1102,7 +1089,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1115,7 +1102,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1128,7 +1115,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1141,7 +1128,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1154,7 +1141,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1167,7 +1154,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1180,7 +1167,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1193,7 +1180,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1206,7 +1193,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1219,7 +1206,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1232,7 +1219,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1245,7 +1232,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1258,7 +1245,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1271,7 +1258,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1284,7 +1271,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1297,7 +1284,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1310,7 +1297,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1323,7 +1310,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1336,7 +1323,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1349,7 +1336,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1362,7 +1349,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1375,19 +1362,6 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2056</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
         <v>2057</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714A49A6-32A5-4B27-B197-95704EB4EA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB5CA1-869D-4F30-88D3-6BAC0B746713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sam" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -411,7 +411,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,10 +420,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB57614-FCF1-4139-AA0D-31AF55A08D66}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,6 +874,16 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2056</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Dropbox\Retirement\MyProject\ARP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB5CA1-869D-4F30-88D3-6BAC0B746713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC7F4E6-34D9-494E-8A54-250FA4C5401B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="8250" activeTab="1" xr2:uid="{10BCA99F-290D-43B0-90F7-A2A56377E151}"/>
   </bookViews>
   <sheets>
     <sheet name="Sam" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>big ticket items</t>
   </si>
   <si>
-    <t>anticipated income</t>
-  </si>
-  <si>
     <t>Roth X</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>ctrb Roth IRA</t>
+  </si>
+  <si>
+    <t>anticipated wages</t>
   </si>
 </sst>
 </file>
@@ -422,57 +422,57 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -485,7 +485,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -498,7 +498,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -511,7 +511,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -524,7 +524,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -537,7 +537,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -550,7 +550,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -563,7 +563,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -576,7 +576,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -615,7 +615,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -628,7 +628,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -654,7 +654,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -667,7 +667,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -693,7 +693,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -719,7 +719,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -732,7 +732,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -745,7 +745,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -797,7 +797,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -810,7 +810,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -823,7 +823,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2051</v>
       </c>
@@ -836,7 +836,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2052</v>
       </c>
@@ -849,7 +849,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2053</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2054</v>
       </c>
@@ -875,12 +875,12 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2055</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2056</v>
       </c>
@@ -895,53 +895,53 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2024</v>
       </c>
@@ -954,7 +954,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2025</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2026</v>
       </c>
@@ -980,7 +980,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2027</v>
       </c>
@@ -993,7 +993,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2028</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2029</v>
       </c>
@@ -1019,7 +1019,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2030</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2031</v>
       </c>
@@ -1045,7 +1045,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2032</v>
       </c>
@@ -1058,7 +1058,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2033</v>
       </c>
@@ -1071,7 +1071,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2034</v>
       </c>
@@ -1084,7 +1084,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2035</v>
       </c>
@@ -1097,7 +1097,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2036</v>
       </c>
@@ -1110,7 +1110,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2037</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2038</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2039</v>
       </c>
@@ -1149,7 +1149,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2040</v>
       </c>
@@ -1162,7 +1162,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2041</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2042</v>
       </c>
@@ -1188,7 +1188,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2043</v>
       </c>
@@ -1201,7 +1201,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2044</v>
       </c>
@@ -1214,7 +1214,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2045</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2046</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2047</v>
       </c>
@@ -1253,7 +1253,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2048</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2049</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2050</v>
       </c>
@@ -1292,7 +1292,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2051</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2052</v>
       </c>
@@ -1318,7 +1318,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2053</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2054</v>
       </c>
@@ -1344,7 +1344,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2055</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2056</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2057</v>
       </c>
